--- a/biology/Botanique/Cymodocea/Cymodocea.xlsx
+++ b/biology/Botanique/Cymodocea/Cymodocea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cymodocea est un genre d'herbes marines, plantes monocotylédones sous-marines de la famille des Cymodoceaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique Cymodocea dérive du grec « Cymodocée » (divinité marine qui fait partie des Néréides), pour qualifier une plante qui vit dans la mer[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique Cymodocea dérive du grec « Cymodocée » (divinité marine qui fait partie des Néréides), pour qualifier une plante qui vit dans la mer.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Caractéristiques générales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des plantes marines herbacées, vivaces, appartenant à la famille des Cymodoceaceae, dont les caractères distinctifs sont les suivants[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des plantes marines herbacées, vivaces, appartenant à la famille des Cymodoceaceae, dont les caractères distinctifs sont les suivants :
 Feuilles en forme de ruban, portant une gaine à leur base, une ligule à la jonction de la gaine et du limbe et dotées d'un grand nombre de cellules à tanin,
 Tige portant des feuilles à chaque nœud du rhizome,
 Nervures foliaires longitudinales au nombre de 7 à 17.
@@ -578,7 +594,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Sont actuellement acceptées dans ce genre :
 </t>
@@ -609,11 +627,13 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Cymodocea est localisé dans l'ouest de l'Afrique, en Méditerranée, sur la côte est de l'Afrique (notamment mer Rouge et Madagascar), sur les côtes sud asiatiques (sud Malaisie, Indonésie...) et sur les côtes nord et nord-est de l'Australie. Le genre est aussi signalé sur certaines stations des côtes ouest de l'Australie[4].
-Cymodocea nodosa, espèce de Méditerranée et de la côte ouest de l'Afrique, est considérée comme en limite d'extension méridionale dans les îles Canaries[5].
-Cymodocea angustata est une espèce endémique des côtes ouest de l'Australie[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Cymodocea est localisé dans l'ouest de l'Afrique, en Méditerranée, sur la côte est de l'Afrique (notamment mer Rouge et Madagascar), sur les côtes sud asiatiques (sud Malaisie, Indonésie...) et sur les côtes nord et nord-est de l'Australie. Le genre est aussi signalé sur certaines stations des côtes ouest de l'Australie.
+Cymodocea nodosa, espèce de Méditerranée et de la côte ouest de l'Afrique, est considérée comme en limite d'extension méridionale dans les îles Canaries.
+Cymodocea angustata est une espèce endémique des côtes ouest de l'Australie.
 Cymodocea rotundata est répartie en mer Rouge, en océan Indien et dans l'ouest de l'océan Pacifique.
 Cymodocea serrulata est une espèce des côtes est africaine (Somalie, Kenya, Tanzanie), de l'océan Indien et de l'ouest de l'océan Pacifique.
 Cymodocea isoetifolia est une espèce controversée.
@@ -645,7 +665,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cymodocea nodosa
@@ -699,6 +721,8 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
